--- a/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>MOST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,19 +747,19 @@
         <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G8" s="3">
         <v>800</v>
       </c>
       <c r="H8" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I8" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="J8" s="3">
         <v>500</v>
@@ -761,22 +768,28 @@
         <v>500</v>
       </c>
       <c r="L8" s="3">
+        <v>500</v>
+      </c>
+      <c r="M8" s="3">
+        <v>500</v>
+      </c>
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
-      </c>
-      <c r="N8" s="3">
-        <v>400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>500</v>
       </c>
       <c r="P8" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>500</v>
+      </c>
+      <c r="R8" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,7 +800,7 @@
         <v>300</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
@@ -796,31 +809,37 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
       <c r="K9" s="3">
+        <v>200</v>
+      </c>
+      <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>200</v>
-      </c>
-      <c r="N9" s="3">
-        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>200</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,43 +847,49 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G10" s="3">
         <v>500</v>
       </c>
       <c r="H10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L10" s="3">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>400</v>
       </c>
       <c r="N10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O10" s="3">
+        <v>400</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,37 +906,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>700</v>
+      </c>
+      <c r="G12" s="3">
         <v>800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>500</v>
       </c>
       <c r="H12" s="3">
         <v>500</v>
       </c>
       <c r="I12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J12" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K12" s="3">
         <v>400</v>
       </c>
       <c r="L12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M12" s="3">
         <v>400</v>
@@ -925,8 +952,14 @@
       <c r="P12" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>400</v>
+      </c>
+      <c r="R12" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,11 +1037,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1193,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-1100</v>
@@ -1205,86 +1272,98 @@
         <v>-1000</v>
       </c>
       <c r="K20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1000</v>
       </c>
       <c r="O20" s="3">
         <v>-1000</v>
       </c>
       <c r="P20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1600</v>
+        <v>-1400</v>
       </c>
       <c r="E21" s="3">
         <v>-1700</v>
       </c>
       <c r="F21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1100</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>10</v>
@@ -1292,11 +1371,11 @@
       <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1310,52 +1389,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2100</v>
       </c>
       <c r="H23" s="3">
         <v>-2200</v>
       </c>
       <c r="I23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2900</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2100</v>
       </c>
       <c r="H26" s="3">
         <v>-2200</v>
       </c>
       <c r="I26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-2100</v>
       </c>
       <c r="H27" s="3">
         <v>-2200</v>
       </c>
       <c r="I27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1721,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>1100</v>
@@ -1733,69 +1872,81 @@
         <v>1000</v>
       </c>
       <c r="K32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1000</v>
       </c>
       <c r="O32" s="3">
         <v>1000</v>
       </c>
       <c r="P32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-2100</v>
       </c>
       <c r="H33" s="3">
         <v>-2200</v>
       </c>
       <c r="I33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-2100</v>
       </c>
       <c r="H35" s="3">
         <v>-2200</v>
       </c>
       <c r="I35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,43 +2149,49 @@
         <v>300</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>300</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2234,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2158,13 +2355,13 @@
         <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
@@ -2173,7 +2370,7 @@
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
@@ -2187,52 +2384,64 @@
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2284,19 +2499,19 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
+        <v>700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>700</v>
+      </c>
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>100</v>
-      </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2334,28 +2555,28 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
       </c>
       <c r="M49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O49" s="3">
         <v>300</v>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>300</v>
+      </c>
+      <c r="R49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2468,11 +2707,11 @@
       <c r="G52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="3">
-        <v>100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -2480,23 +2719,29 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>10</v>
+      <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F54" s="3">
         <v>1800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,13 +2878,15 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -2643,10 +2904,10 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2658,222 +2919,252 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>48400</v>
+      </c>
+      <c r="F58" s="3">
         <v>5000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5000</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>45000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>42800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5000</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>51900</v>
+      </c>
+      <c r="F60" s="3">
         <v>7800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>47000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>44900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>42300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>39900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>43800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>41900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>41300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>40700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>44500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>47900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>46500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>45400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>52500</v>
+      </c>
+      <c r="F66" s="3">
         <v>51000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>49400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>47400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>45700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>44200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>43700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>47700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>45500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>52000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>51200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>49500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>47600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-173100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-169800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-166700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-163900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-160900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-158800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-156700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-154500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-152300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-150500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-148500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-148100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-146400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-144400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-142600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-49200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-47800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-46000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-44700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-43100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-41800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-45700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-44700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-49800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-49600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-48000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-46200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-44400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-2100</v>
       </c>
       <c r="H81" s="3">
         <v>-2200</v>
       </c>
       <c r="I81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1400</v>
       </c>
       <c r="J89" s="3">
         <v>-1400</v>
       </c>
       <c r="K89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3968,11 +4409,11 @@
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,13 +4539,19 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>700</v>
+      </c>
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>MOST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,16 +757,16 @@
         <v>600</v>
       </c>
       <c r="G8" s="3">
+        <v>600</v>
+      </c>
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>500</v>
       </c>
       <c r="K8" s="3">
         <v>500</v>
@@ -774,27 +778,30 @@
         <v>500</v>
       </c>
       <c r="N8" s="3">
+        <v>500</v>
+      </c>
+      <c r="O8" s="3">
         <v>1900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
@@ -806,13 +813,13 @@
         <v>300</v>
       </c>
       <c r="H9" s="3">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
@@ -821,13 +828,13 @@
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
@@ -836,15 +843,18 @@
         <v>200</v>
       </c>
       <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
@@ -853,7 +863,7 @@
         <v>300</v>
       </c>
       <c r="G10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>500</v>
@@ -862,7 +872,7 @@
         <v>500</v>
       </c>
       <c r="J10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
@@ -871,25 +881,28 @@
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>300</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>300</v>
       </c>
       <c r="R10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,25 +921,26 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
-      </c>
-      <c r="E12" s="3">
-        <v>700</v>
       </c>
       <c r="F12" s="3">
         <v>700</v>
       </c>
       <c r="G12" s="3">
+        <v>700</v>
+      </c>
+      <c r="H12" s="3">
         <v>800</v>
-      </c>
-      <c r="H12" s="3">
-        <v>500</v>
       </c>
       <c r="I12" s="3">
         <v>500</v>
@@ -935,13 +949,13 @@
         <v>500</v>
       </c>
       <c r="K12" s="3">
+        <v>500</v>
+      </c>
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>400</v>
       </c>
       <c r="N12" s="3">
         <v>400</v>
@@ -958,8 +972,11 @@
       <c r="R12" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,31 +1025,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>4900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1043,8 +1063,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1800</v>
       </c>
       <c r="I17" s="3">
         <v>1800</v>
       </c>
       <c r="J17" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K17" s="3">
         <v>1700</v>
       </c>
       <c r="L17" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M17" s="3">
         <v>1300</v>
       </c>
       <c r="N17" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="O17" s="3">
         <v>1200</v>
       </c>
       <c r="P17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1200</v>
       </c>
       <c r="K18" s="3">
         <v>-1200</v>
       </c>
       <c r="L18" s="3">
-        <v>-800</v>
+        <v>-1200</v>
       </c>
       <c r="M18" s="3">
         <v>-800</v>
       </c>
       <c r="N18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O18" s="3">
         <v>700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1266,25 +1300,25 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1000</v>
       </c>
       <c r="P20" s="3">
         <v>-1000</v>
@@ -1293,80 +1327,86 @@
         <v>-1000</v>
       </c>
       <c r="R20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E22" s="3">
         <v>1900</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1300</v>
       </c>
       <c r="F22" s="3">
         <v>1300</v>
       </c>
       <c r="G22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1100</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>10</v>
@@ -1377,8 +1417,8 @@
       <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-2900</v>
       </c>
       <c r="G23" s="3">
         <v>-2900</v>
       </c>
       <c r="H23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-2900</v>
       </c>
       <c r="G26" s="3">
         <v>-2900</v>
       </c>
       <c r="H26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-2900</v>
       </c>
       <c r="G27" s="3">
         <v>-2900</v>
       </c>
       <c r="H27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1866,25 +1936,25 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1000</v>
       </c>
       <c r="P32" s="3">
         <v>1000</v>
@@ -1893,60 +1963,66 @@
         <v>1000</v>
       </c>
       <c r="R32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-2900</v>
       </c>
       <c r="G33" s="3">
         <v>-2900</v>
       </c>
       <c r="H33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-2900</v>
       </c>
       <c r="G35" s="3">
         <v>-2900</v>
       </c>
       <c r="H35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>300</v>
       </c>
       <c r="J41" s="3">
         <v>300</v>
       </c>
       <c r="K41" s="3">
+        <v>300</v>
+      </c>
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
-      </c>
-      <c r="P41" s="3">
-        <v>500</v>
       </c>
       <c r="Q41" s="3">
         <v>500</v>
       </c>
       <c r="R41" s="3">
+        <v>500</v>
+      </c>
+      <c r="S41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2249,19 +2342,19 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>300</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
@@ -2270,28 +2363,31 @@
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
       </c>
       <c r="O43" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>500</v>
       </c>
       <c r="Q43" s="3">
+        <v>500</v>
+      </c>
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,13 +2436,16 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -2361,87 +2460,93 @@
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>900</v>
       </c>
       <c r="J46" s="3">
         <v>900</v>
       </c>
       <c r="K46" s="3">
+        <v>900</v>
+      </c>
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,13 +2595,16 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
@@ -2505,16 +2613,16 @@
         <v>700</v>
       </c>
       <c r="G48" s="3">
+        <v>700</v>
+      </c>
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2561,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -2570,7 +2681,7 @@
         <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M49" s="3">
         <v>200</v>
@@ -2579,7 +2690,7 @@
         <v>200</v>
       </c>
       <c r="O49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P49" s="3">
         <v>300</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2713,20 +2833,20 @@
       <c r="I52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>10</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>10</v>
@@ -2734,14 +2854,17 @@
       <c r="P52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1900</v>
       </c>
       <c r="L54" s="3">
         <v>1900</v>
       </c>
       <c r="M54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,16 +3010,17 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -2910,7 +3041,7 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -2925,34 +3056,37 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>49300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>48400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>5000</v>
       </c>
       <c r="G58" s="3">
         <v>5000</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -2960,17 +3094,17 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>45000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>42800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5000</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
@@ -2980,158 +3114,170 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>51900</v>
+        <v>1900</v>
       </c>
       <c r="E60" s="3">
         <v>51900</v>
       </c>
       <c r="F60" s="3">
+        <v>51900</v>
+      </c>
+      <c r="G60" s="3">
         <v>7800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>47000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>44900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E61" s="3">
         <v>800</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>42300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>39900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>43800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>41900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>41300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>40700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>44500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>47900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>46500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>45400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3142,32 +3288,32 @@
         <v>600</v>
       </c>
       <c r="F62" s="3">
+        <v>600</v>
+      </c>
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E66" s="3">
         <v>53400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>52500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>51000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>49400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>47400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>44200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>47700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>51200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>47600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-181100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-173100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-169800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-166700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-163900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-160900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-158800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-156700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-154500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-152300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-150500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-148500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-148100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-146400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-144400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-142600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-51800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-51300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-49200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-47800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-46000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-44700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-43100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-41800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-45700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-44700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-49800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-49600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-46200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-44400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-2900</v>
       </c>
       <c r="G81" s="3">
         <v>-2900</v>
       </c>
       <c r="H81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,31 +4539,34 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1400</v>
       </c>
       <c r="K89" s="3">
         <v>-1400</v>
@@ -4358,25 +4575,28 @@
         <v>-1400</v>
       </c>
       <c r="M89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4415,8 +4636,8 @@
       <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,16 +4772,19 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E100" s="3">
         <v>3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>MOST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,94 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>600</v>
@@ -760,16 +764,16 @@
         <v>600</v>
       </c>
       <c r="H8" s="3">
+        <v>600</v>
+      </c>
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>500</v>
       </c>
       <c r="L8" s="3">
         <v>500</v>
@@ -781,22 +785,25 @@
         <v>500</v>
       </c>
       <c r="O8" s="3">
+        <v>500</v>
+      </c>
+      <c r="P8" s="3">
         <v>1900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,7 +811,7 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -816,13 +823,13 @@
         <v>300</v>
       </c>
       <c r="I9" s="3">
+        <v>300</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
@@ -831,13 +838,13 @@
         <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>200</v>
@@ -846,18 +853,21 @@
         <v>200</v>
       </c>
       <c r="S9" s="3">
+        <v>200</v>
+      </c>
+      <c r="T9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
-      </c>
-      <c r="E10" s="3">
-        <v>300</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
@@ -866,7 +876,7 @@
         <v>300</v>
       </c>
       <c r="H10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I10" s="3">
         <v>500</v>
@@ -875,7 +885,7 @@
         <v>500</v>
       </c>
       <c r="K10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
@@ -884,25 +894,28 @@
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
-      </c>
-      <c r="R10" s="3">
-        <v>300</v>
       </c>
       <c r="S10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,28 +935,29 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>700</v>
       </c>
       <c r="G12" s="3">
         <v>700</v>
       </c>
       <c r="H12" s="3">
+        <v>700</v>
+      </c>
+      <c r="I12" s="3">
         <v>800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>500</v>
       </c>
       <c r="J12" s="3">
         <v>500</v>
@@ -952,13 +966,13 @@
         <v>500</v>
       </c>
       <c r="L12" s="3">
+        <v>500</v>
+      </c>
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>400</v>
       </c>
       <c r="O12" s="3">
         <v>400</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,16 +1045,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>4900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1054,8 +1074,8 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1066,8 +1086,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1800</v>
       </c>
       <c r="J17" s="3">
         <v>1800</v>
       </c>
       <c r="K17" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L17" s="3">
         <v>1700</v>
       </c>
       <c r="M17" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="N17" s="3">
         <v>1300</v>
       </c>
       <c r="O17" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="P17" s="3">
         <v>1200</v>
       </c>
       <c r="Q17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1200</v>
       </c>
       <c r="L18" s="3">
         <v>-1200</v>
       </c>
       <c r="M18" s="3">
-        <v>-800</v>
+        <v>-1200</v>
       </c>
       <c r="N18" s="3">
         <v>-800</v>
       </c>
       <c r="O18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1303,25 +1337,25 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q20" s="3">
         <v>-1000</v>
@@ -1330,86 +1364,92 @@
         <v>-1000</v>
       </c>
       <c r="S20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1300</v>
       </c>
       <c r="G22" s="3">
         <v>1300</v>
       </c>
       <c r="H22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1100</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -1420,8 +1460,8 @@
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2900</v>
       </c>
       <c r="H23" s="3">
         <v>-2900</v>
       </c>
       <c r="I23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2900</v>
       </c>
       <c r="H26" s="3">
         <v>-2900</v>
       </c>
       <c r="I26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-2900</v>
       </c>
       <c r="H27" s="3">
         <v>-2900</v>
       </c>
       <c r="I27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1939,25 +2009,25 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1000</v>
       </c>
       <c r="Q32" s="3">
         <v>1000</v>
@@ -1966,63 +2036,69 @@
         <v>1000</v>
       </c>
       <c r="S32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-2900</v>
       </c>
       <c r="H33" s="3">
         <v>-2900</v>
       </c>
       <c r="I33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-2900</v>
       </c>
       <c r="H35" s="3">
         <v>-2900</v>
       </c>
       <c r="I35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>300</v>
       </c>
       <c r="K41" s="3">
         <v>300</v>
       </c>
       <c r="L41" s="3">
+        <v>300</v>
+      </c>
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>500</v>
       </c>
       <c r="R41" s="3">
         <v>500</v>
       </c>
       <c r="S41" s="3">
+        <v>500</v>
+      </c>
+      <c r="T41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,31 +2423,34 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
@@ -2366,28 +2459,31 @@
         <v>300</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>300</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
       </c>
       <c r="P43" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>500</v>
       </c>
       <c r="R43" s="3">
+        <v>500</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,7 +2547,7 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
@@ -2463,90 +2562,96 @@
         <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
-      </c>
-      <c r="J46" s="3">
-        <v>900</v>
       </c>
       <c r="K46" s="3">
         <v>900</v>
       </c>
       <c r="L46" s="3">
+        <v>900</v>
+      </c>
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,7 +2715,7 @@
         <v>600</v>
       </c>
       <c r="E48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
@@ -2616,16 +2724,16 @@
         <v>700</v>
       </c>
       <c r="H48" s="3">
+        <v>700</v>
+      </c>
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2675,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -2684,7 +2795,7 @@
         <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
@@ -2693,7 +2804,7 @@
         <v>200</v>
       </c>
       <c r="P49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q49" s="3">
         <v>300</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,46 +2927,49 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>10</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>10</v>
@@ -2857,14 +2977,17 @@
       <c r="Q52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1900</v>
       </c>
       <c r="M54" s="3">
         <v>1900</v>
       </c>
       <c r="N54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,10 +3151,10 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -3044,7 +3175,7 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3059,37 +3190,40 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>49300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>48400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>5000</v>
       </c>
       <c r="H58" s="3">
         <v>5000</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -3097,17 +3231,17 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>45000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>42800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5000</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
@@ -3117,172 +3251,184 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
-      </c>
-      <c r="E60" s="3">
-        <v>51900</v>
       </c>
       <c r="F60" s="3">
         <v>51900</v>
       </c>
       <c r="G60" s="3">
+        <v>51900</v>
+      </c>
+      <c r="H60" s="3">
         <v>7800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>47000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>44900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E61" s="3">
         <v>52300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>800</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>42300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>39900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>43800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>41900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>41300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>40700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>44500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>47900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>46500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>45400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
         <v>600</v>
@@ -3291,32 +3437,32 @@
         <v>600</v>
       </c>
       <c r="G62" s="3">
+        <v>600</v>
+      </c>
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E66" s="3">
         <v>54700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>52500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>51000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>49400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>47400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>47700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>51200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>49500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>47600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-183700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-181100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-173100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-169800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-166700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-163900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-160900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-158800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-156700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-154500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-152300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-150500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-148500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-148100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-146400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-144400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-142600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-53000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-51800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-51300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-49200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-47800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-46000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-44700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-43100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-41800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-45700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-44700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-49800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-49600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-48000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-46200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-44400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-2900</v>
       </c>
       <c r="H81" s="3">
         <v>-2900</v>
       </c>
       <c r="I81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,34 +4756,37 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-1400</v>
       </c>
       <c r="L89" s="3">
         <v>-1400</v>
@@ -4578,25 +4795,28 @@
         <v>-1400</v>
       </c>
       <c r="N89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,28 +4836,29 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,16 +5002,19 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>10</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,7 +758,7 @@
         <v>500</v>
       </c>
       <c r="E8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F8" s="3">
         <v>600</v>
@@ -767,16 +770,16 @@
         <v>600</v>
       </c>
       <c r="I8" s="3">
+        <v>600</v>
+      </c>
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
-      </c>
-      <c r="L8" s="3">
-        <v>500</v>
       </c>
       <c r="M8" s="3">
         <v>500</v>
@@ -788,22 +791,25 @@
         <v>500</v>
       </c>
       <c r="P8" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -814,7 +820,7 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
@@ -826,13 +832,13 @@
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
@@ -841,13 +847,13 @@
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
@@ -856,10 +862,13 @@
         <v>200</v>
       </c>
       <c r="T9" s="3">
+        <v>200</v>
+      </c>
+      <c r="U9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,10 +876,10 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
-      </c>
-      <c r="F10" s="3">
-        <v>300</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
@@ -879,7 +888,7 @@
         <v>300</v>
       </c>
       <c r="I10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>500</v>
@@ -888,7 +897,7 @@
         <v>500</v>
       </c>
       <c r="L10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
@@ -897,25 +906,28 @@
         <v>300</v>
       </c>
       <c r="O10" s="3">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
-      </c>
-      <c r="S10" s="3">
-        <v>300</v>
       </c>
       <c r="T10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,22 +958,22 @@
         <v>700</v>
       </c>
       <c r="E12" s="3">
+        <v>700</v>
+      </c>
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>700</v>
       </c>
       <c r="H12" s="3">
         <v>700</v>
       </c>
       <c r="I12" s="3">
+        <v>700</v>
+      </c>
+      <c r="J12" s="3">
         <v>800</v>
-      </c>
-      <c r="J12" s="3">
-        <v>500</v>
       </c>
       <c r="K12" s="3">
         <v>500</v>
@@ -969,13 +982,13 @@
         <v>500</v>
       </c>
       <c r="M12" s="3">
+        <v>500</v>
+      </c>
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>400</v>
       </c>
       <c r="P12" s="3">
         <v>400</v>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,19 +1064,22 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>54500</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>4900</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1077,8 +1096,8 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1089,8 +1108,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1800</v>
       </c>
       <c r="K17" s="3">
         <v>1800</v>
       </c>
       <c r="L17" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="M17" s="3">
         <v>1700</v>
       </c>
       <c r="N17" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="O17" s="3">
         <v>1300</v>
       </c>
       <c r="P17" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="Q17" s="3">
         <v>1200</v>
       </c>
       <c r="R17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1200</v>
       </c>
       <c r="M18" s="3">
         <v>-1200</v>
       </c>
       <c r="N18" s="3">
-        <v>-800</v>
+        <v>-1200</v>
       </c>
       <c r="O18" s="3">
         <v>-800</v>
       </c>
       <c r="P18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q18" s="3">
         <v>700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1340,25 +1373,25 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1000</v>
       </c>
       <c r="R20" s="3">
         <v>-1000</v>
@@ -1367,92 +1400,98 @@
         <v>-1000</v>
       </c>
       <c r="T20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1300</v>
       </c>
       <c r="H22" s="3">
         <v>1300</v>
       </c>
       <c r="I22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>10</v>
@@ -1463,8 +1502,8 @@
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1481,64 +1520,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2900</v>
       </c>
       <c r="I23" s="3">
         <v>-2900</v>
       </c>
       <c r="J23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2900</v>
       </c>
       <c r="I26" s="3">
         <v>-2900</v>
       </c>
       <c r="J26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-94900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2900</v>
       </c>
       <c r="I27" s="3">
         <v>-2900</v>
       </c>
       <c r="J27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2012,25 +2081,25 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1000</v>
       </c>
       <c r="R32" s="3">
         <v>1000</v>
@@ -2039,66 +2108,72 @@
         <v>1000</v>
       </c>
       <c r="T32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-94900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2900</v>
       </c>
       <c r="I33" s="3">
         <v>-2900</v>
       </c>
       <c r="J33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-94900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2900</v>
       </c>
       <c r="I35" s="3">
         <v>-2900</v>
       </c>
       <c r="J35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>300</v>
       </c>
       <c r="L41" s="3">
         <v>300</v>
       </c>
       <c r="M41" s="3">
+        <v>300</v>
+      </c>
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
-      </c>
-      <c r="R41" s="3">
-        <v>500</v>
       </c>
       <c r="S41" s="3">
         <v>500</v>
       </c>
       <c r="T41" s="3">
+        <v>500</v>
+      </c>
+      <c r="U41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,34 +2515,37 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
@@ -2462,28 +2554,31 @@
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
       <c r="Q43" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="R43" s="3">
         <v>500</v>
       </c>
       <c r="S43" s="3">
+        <v>500</v>
+      </c>
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2550,7 +2648,7 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
@@ -2565,93 +2663,99 @@
         <v>300</v>
       </c>
       <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
-      </c>
-      <c r="K46" s="3">
-        <v>900</v>
       </c>
       <c r="L46" s="3">
         <v>900</v>
       </c>
       <c r="M46" s="3">
+        <v>900</v>
+      </c>
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,19 +2810,22 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
       </c>
       <c r="F48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
@@ -2727,16 +2834,16 @@
         <v>700</v>
       </c>
       <c r="I48" s="3">
+        <v>700</v>
+      </c>
+      <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2789,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
@@ -2798,7 +2908,7 @@
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
@@ -2807,7 +2917,7 @@
         <v>200</v>
       </c>
       <c r="Q49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R49" s="3">
         <v>300</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2956,23 +3075,23 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>10</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>10</v>
@@ -2980,14 +3099,17 @@
       <c r="R52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1900</v>
       </c>
       <c r="N54" s="3">
         <v>1900</v>
       </c>
       <c r="O54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,22 +3271,23 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -3178,7 +3308,7 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3193,40 +3323,43 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>49300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>48400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>5000</v>
       </c>
       <c r="I58" s="3">
         <v>5000</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -3234,17 +3367,17 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>45000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>42800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5000</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -3254,184 +3387,196 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>51900</v>
       </c>
       <c r="G60" s="3">
         <v>51900</v>
       </c>
       <c r="H60" s="3">
+        <v>51900</v>
+      </c>
+      <c r="I60" s="3">
         <v>7800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>47000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>44900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E61" s="3">
         <v>52600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>52300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>42300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>39900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>43800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>41900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>41300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>40700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>44500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>47900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>46500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>45400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
-      </c>
-      <c r="E62" s="3">
-        <v>600</v>
       </c>
       <c r="F62" s="3">
         <v>600</v>
@@ -3440,32 +3585,32 @@
         <v>600</v>
       </c>
       <c r="H62" s="3">
+        <v>600</v>
+      </c>
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E66" s="3">
         <v>55800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>52500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>51000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>49400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>47400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>44200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>47700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>45500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>52000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>51200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>49500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>47600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,13 +4000,16 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>103600</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-241200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-183700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-181100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-173100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-169800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-166700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-163900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-160900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-158800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-156700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-154500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-152300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-150500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-148500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-148100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-146400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-144400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-142600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-111100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-54600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-53000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-51800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-51300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-49200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-47800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-46000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-44700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-43100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-41800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-45700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-44700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-49800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-49600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-48000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-46200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-44400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-94900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2900</v>
       </c>
       <c r="I81" s="3">
         <v>-2900</v>
       </c>
       <c r="J81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,37 +4972,40 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-1400</v>
       </c>
       <c r="M89" s="3">
         <v>-1400</v>
@@ -4798,25 +5014,28 @@
         <v>-1400</v>
       </c>
       <c r="O89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>MOST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,107 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E8" s="3">
         <v>500</v>
       </c>
       <c r="F8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G8" s="3">
         <v>600</v>
@@ -773,16 +777,16 @@
         <v>600</v>
       </c>
       <c r="J8" s="3">
+        <v>600</v>
+      </c>
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
-      </c>
-      <c r="M8" s="3">
-        <v>500</v>
       </c>
       <c r="N8" s="3">
         <v>500</v>
@@ -794,22 +798,25 @@
         <v>500</v>
       </c>
       <c r="Q8" s="3">
+        <v>500</v>
+      </c>
+      <c r="R8" s="3">
         <v>1900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -823,7 +830,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
@@ -835,13 +842,13 @@
         <v>300</v>
       </c>
       <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
@@ -850,13 +857,13 @@
         <v>200</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>200</v>
@@ -865,24 +872,27 @@
         <v>200</v>
       </c>
       <c r="U9" s="3">
+        <v>200</v>
+      </c>
+      <c r="V9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
       </c>
       <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
         <v>400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
@@ -891,7 +901,7 @@
         <v>300</v>
       </c>
       <c r="J10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K10" s="3">
         <v>500</v>
@@ -900,7 +910,7 @@
         <v>500</v>
       </c>
       <c r="M10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N10" s="3">
         <v>300</v>
@@ -909,25 +919,28 @@
         <v>300</v>
       </c>
       <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
-      </c>
-      <c r="T10" s="3">
-        <v>300</v>
       </c>
       <c r="U10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,34 +962,35 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E12" s="3">
         <v>700</v>
       </c>
       <c r="F12" s="3">
+        <v>700</v>
+      </c>
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>700</v>
       </c>
       <c r="I12" s="3">
         <v>700</v>
       </c>
       <c r="J12" s="3">
+        <v>700</v>
+      </c>
+      <c r="K12" s="3">
         <v>800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>500</v>
       </c>
       <c r="L12" s="3">
         <v>500</v>
@@ -985,13 +999,13 @@
         <v>500</v>
       </c>
       <c r="N12" s="3">
+        <v>500</v>
+      </c>
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
-      </c>
-      <c r="P12" s="3">
-        <v>400</v>
       </c>
       <c r="Q12" s="3">
         <v>400</v>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,22 +1084,25 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="3">
         <v>54500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>4900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1099,8 +1119,8 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1111,8 +1131,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E17" s="3">
         <v>56700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1800</v>
       </c>
       <c r="L17" s="3">
         <v>1800</v>
       </c>
       <c r="M17" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="N17" s="3">
         <v>1700</v>
       </c>
       <c r="O17" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="P17" s="3">
         <v>1300</v>
       </c>
       <c r="Q17" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="R17" s="3">
         <v>1200</v>
       </c>
       <c r="S17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-56200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1200</v>
       </c>
       <c r="N18" s="3">
         <v>-1200</v>
       </c>
       <c r="O18" s="3">
-        <v>-800</v>
+        <v>-1200</v>
       </c>
       <c r="P18" s="3">
         <v>-800</v>
       </c>
       <c r="Q18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R18" s="3">
         <v>700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1376,25 +1410,25 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1000</v>
       </c>
       <c r="S20" s="3">
         <v>-1000</v>
@@ -1403,98 +1437,104 @@
         <v>-1000</v>
       </c>
       <c r="U20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-56100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1300</v>
       </c>
       <c r="I22" s="3">
         <v>1300</v>
       </c>
       <c r="J22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>10</v>
@@ -1505,8 +1545,8 @@
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-57400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2900</v>
       </c>
       <c r="J23" s="3">
         <v>-2900</v>
       </c>
       <c r="K23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-57400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-2900</v>
       </c>
       <c r="J26" s="3">
         <v>-2900</v>
       </c>
       <c r="K26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-94900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-2900</v>
       </c>
       <c r="J27" s="3">
         <v>-2900</v>
       </c>
       <c r="K27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2084,25 +2154,25 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1000</v>
       </c>
       <c r="S32" s="3">
         <v>1000</v>
@@ -2111,69 +2181,75 @@
         <v>1000</v>
       </c>
       <c r="U32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-94900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-2900</v>
       </c>
       <c r="J33" s="3">
         <v>-2900</v>
       </c>
       <c r="K33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-94900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-2900</v>
       </c>
       <c r="J35" s="3">
         <v>-2900</v>
       </c>
       <c r="K35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>300</v>
       </c>
       <c r="M41" s="3">
         <v>300</v>
       </c>
       <c r="N41" s="3">
+        <v>300</v>
+      </c>
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
-      </c>
-      <c r="S41" s="3">
-        <v>500</v>
       </c>
       <c r="T41" s="3">
         <v>500</v>
       </c>
       <c r="U41" s="3">
+        <v>500</v>
+      </c>
+      <c r="V41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2527,28 +2620,28 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
@@ -2557,28 +2650,31 @@
         <v>300</v>
       </c>
       <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
-      </c>
-      <c r="P43" s="3">
-        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
       </c>
       <c r="R43" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>500</v>
       </c>
       <c r="T43" s="3">
+        <v>500</v>
+      </c>
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2651,7 +2750,7 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
@@ -2666,96 +2765,102 @@
         <v>300</v>
       </c>
       <c r="L45" s="3">
+        <v>300</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
-      </c>
-      <c r="L46" s="3">
-        <v>900</v>
       </c>
       <c r="M46" s="3">
         <v>900</v>
       </c>
       <c r="N46" s="3">
+        <v>900</v>
+      </c>
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2822,13 +2930,13 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
@@ -2837,16 +2945,16 @@
         <v>700</v>
       </c>
       <c r="J48" s="3">
+        <v>700</v>
+      </c>
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>900</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -2872,13 +2980,16 @@
       <c r="U48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -2902,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -2911,7 +3022,7 @@
         <v>100</v>
       </c>
       <c r="O49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
@@ -2920,7 +3031,7 @@
         <v>200</v>
       </c>
       <c r="R49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S49" s="3">
         <v>300</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3078,23 +3198,23 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>10</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>10</v>
@@ -3102,14 +3222,17 @@
       <c r="S52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1900</v>
       </c>
       <c r="O54" s="3">
         <v>1900</v>
       </c>
       <c r="P54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,25 +3402,26 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3311,7 +3442,7 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3326,43 +3457,46 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>49300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>48400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>5000</v>
       </c>
       <c r="J58" s="3">
         <v>5000</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -3370,17 +3504,17 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>45000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>42800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5000</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
@@ -3390,196 +3524,208 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>51900</v>
       </c>
       <c r="H60" s="3">
         <v>51900</v>
       </c>
       <c r="I60" s="3">
+        <v>51900</v>
+      </c>
+      <c r="J60" s="3">
         <v>7800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>47000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>44900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E61" s="3">
         <v>6100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>52600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>52300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>42300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>39900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>41900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>41300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>40700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>44500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>47900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>46500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>45400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>600</v>
       </c>
       <c r="G62" s="3">
         <v>600</v>
@@ -3588,32 +3734,32 @@
         <v>600</v>
       </c>
       <c r="I62" s="3">
+        <v>600</v>
+      </c>
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E66" s="3">
         <v>8400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>53400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>52500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>51000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>49400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>47400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>44200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>47700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>45500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>52000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>51200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>49500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>47600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,17 +4168,20 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E70" s="3">
         <v>103600</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-249400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-241200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-183700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-181100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-173100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-169800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-166700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-163900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-160900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-158800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-156700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-154500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-152300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-150500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-148500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-148100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-146400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-144400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-142600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-118400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-111100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-54600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-53000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-51800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-51300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-49200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-47800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-46000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-44700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-43100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-41800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-45700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-44700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-49800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-49600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-48000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-46200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-44400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-94900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-2900</v>
       </c>
       <c r="J81" s="3">
         <v>-2900</v>
       </c>
       <c r="K81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,40 +5189,43 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-1400</v>
       </c>
       <c r="N89" s="3">
         <v>-1400</v>
@@ -5017,25 +5234,28 @@
         <v>-1400</v>
       </c>
       <c r="P89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>MOST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,13 +766,13 @@
         <v>400</v>
       </c>
       <c r="E8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F8" s="3">
         <v>500</v>
       </c>
       <c r="G8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H8" s="3">
         <v>600</v>
@@ -780,16 +784,16 @@
         <v>600</v>
       </c>
       <c r="K8" s="3">
+        <v>600</v>
+      </c>
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
-      </c>
-      <c r="N8" s="3">
-        <v>500</v>
       </c>
       <c r="O8" s="3">
         <v>500</v>
@@ -801,22 +805,25 @@
         <v>500</v>
       </c>
       <c r="R8" s="3">
+        <v>500</v>
+      </c>
+      <c r="S8" s="3">
         <v>1900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -833,7 +840,7 @@
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
@@ -845,13 +852,13 @@
         <v>300</v>
       </c>
       <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
@@ -860,13 +867,13 @@
         <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>200</v>
@@ -875,10 +882,13 @@
         <v>200</v>
       </c>
       <c r="V9" s="3">
+        <v>200</v>
+      </c>
+      <c r="W9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,16 +896,16 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
       </c>
       <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
         <v>400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
@@ -904,7 +914,7 @@
         <v>300</v>
       </c>
       <c r="K10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>500</v>
@@ -913,7 +923,7 @@
         <v>500</v>
       </c>
       <c r="N10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O10" s="3">
         <v>300</v>
@@ -922,25 +932,28 @@
         <v>300</v>
       </c>
       <c r="Q10" s="3">
+        <v>300</v>
+      </c>
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
-      </c>
-      <c r="U10" s="3">
-        <v>300</v>
       </c>
       <c r="V10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -972,28 +986,28 @@
         <v>900</v>
       </c>
       <c r="E12" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F12" s="3">
         <v>700</v>
       </c>
       <c r="G12" s="3">
+        <v>700</v>
+      </c>
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>700</v>
       </c>
       <c r="J12" s="3">
         <v>700</v>
       </c>
       <c r="K12" s="3">
+        <v>700</v>
+      </c>
+      <c r="L12" s="3">
         <v>800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>500</v>
       </c>
       <c r="M12" s="3">
         <v>500</v>
@@ -1002,13 +1016,13 @@
         <v>500</v>
       </c>
       <c r="O12" s="3">
+        <v>500</v>
+      </c>
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>400</v>
       </c>
       <c r="R12" s="3">
         <v>400</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,25 +1104,28 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>6000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>54500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>4900</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1122,8 +1142,8 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1134,8 +1154,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
         <v>8500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>56700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1800</v>
       </c>
       <c r="M17" s="3">
         <v>1800</v>
       </c>
       <c r="N17" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="O17" s="3">
         <v>1700</v>
       </c>
       <c r="P17" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="Q17" s="3">
         <v>1300</v>
       </c>
       <c r="R17" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="S17" s="3">
         <v>1200</v>
       </c>
       <c r="T17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-56200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1200</v>
       </c>
       <c r="O18" s="3">
         <v>-1200</v>
       </c>
       <c r="P18" s="3">
-        <v>-800</v>
+        <v>-1200</v>
       </c>
       <c r="Q18" s="3">
         <v>-800</v>
       </c>
       <c r="R18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S18" s="3">
         <v>700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1413,25 +1447,25 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1000</v>
       </c>
       <c r="T20" s="3">
         <v>-1000</v>
@@ -1440,104 +1474,110 @@
         <v>-1000</v>
       </c>
       <c r="V20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-8100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-56100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1300</v>
       </c>
       <c r="J22" s="3">
         <v>1300</v>
       </c>
       <c r="K22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>10</v>
@@ -1548,8 +1588,8 @@
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-57400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-2900</v>
       </c>
       <c r="K23" s="3">
         <v>-2900</v>
       </c>
       <c r="L23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-57400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-2900</v>
       </c>
       <c r="K26" s="3">
         <v>-2900</v>
       </c>
       <c r="L26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-94900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-2900</v>
       </c>
       <c r="K27" s="3">
         <v>-2900</v>
       </c>
       <c r="L27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2157,25 +2227,25 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1000</v>
       </c>
       <c r="T32" s="3">
         <v>1000</v>
@@ -2184,72 +2254,78 @@
         <v>1000</v>
       </c>
       <c r="V32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-94900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-2900</v>
       </c>
       <c r="K33" s="3">
         <v>-2900</v>
       </c>
       <c r="L33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M33" s="3">
         <v>-2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-94900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-2900</v>
       </c>
       <c r="K35" s="3">
         <v>-2900</v>
       </c>
       <c r="L35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M35" s="3">
         <v>-2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>300</v>
       </c>
       <c r="N41" s="3">
         <v>300</v>
       </c>
       <c r="O41" s="3">
+        <v>300</v>
+      </c>
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
-      </c>
-      <c r="T41" s="3">
-        <v>500</v>
       </c>
       <c r="U41" s="3">
         <v>500</v>
       </c>
       <c r="V41" s="3">
+        <v>500</v>
+      </c>
+      <c r="W41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,40 +2701,43 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
       </c>
       <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
@@ -2653,28 +2746,31 @@
         <v>300</v>
       </c>
       <c r="P43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>300</v>
       </c>
       <c r="R43" s="3">
         <v>300</v>
       </c>
       <c r="S43" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T43" s="3">
         <v>500</v>
       </c>
       <c r="U43" s="3">
+        <v>500</v>
+      </c>
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,13 +2831,16 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -2753,7 +2852,7 @@
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
@@ -2768,99 +2867,105 @@
         <v>300</v>
       </c>
       <c r="M45" s="3">
+        <v>300</v>
+      </c>
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
-      </c>
-      <c r="M46" s="3">
-        <v>900</v>
       </c>
       <c r="N46" s="3">
         <v>900</v>
       </c>
       <c r="O46" s="3">
+        <v>900</v>
+      </c>
+      <c r="P46" s="3">
         <v>1600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,25 +3026,28 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
@@ -2948,16 +3056,16 @@
         <v>700</v>
       </c>
       <c r="K48" s="3">
+        <v>700</v>
+      </c>
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>900</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2983,16 +3091,19 @@
       <c r="V48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -3016,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
         <v>100</v>
@@ -3025,7 +3136,7 @@
         <v>100</v>
       </c>
       <c r="P49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q49" s="3">
         <v>200</v>
@@ -3034,7 +3145,7 @@
         <v>200</v>
       </c>
       <c r="S49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T49" s="3">
         <v>300</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3201,23 +3321,23 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>10</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>10</v>
@@ -3225,14 +3345,17 @@
       <c r="T52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1900</v>
       </c>
       <c r="P54" s="3">
         <v>1900</v>
       </c>
       <c r="Q54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,28 +3533,29 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -3445,7 +3576,7 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3460,46 +3591,49 @@
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>49300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>48400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>5000</v>
       </c>
       <c r="K58" s="3">
         <v>5000</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -3507,17 +3641,17 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>45000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>42800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5000</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
@@ -3527,208 +3661,220 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>51900</v>
       </c>
       <c r="I60" s="3">
         <v>51900</v>
       </c>
       <c r="J60" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K60" s="3">
         <v>7800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>47000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>44900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>5500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>52600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>52300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>42300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>39900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>43800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>41900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>41300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>40700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>44500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>47900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>46500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>45400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>600</v>
       </c>
       <c r="H62" s="3">
         <v>600</v>
@@ -3737,32 +3883,32 @@
         <v>600</v>
       </c>
       <c r="J62" s="3">
+        <v>600</v>
+      </c>
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>600</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E66" s="3">
         <v>7300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>53400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>52500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>51000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>47400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>44200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>47700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>45500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>52000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>51200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>49500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>47600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,20 +4336,23 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>114100</v>
+      </c>
+      <c r="E70" s="3">
         <v>113100</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>103600</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-251300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-249400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-241200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-183700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-181100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-173100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-169800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-166700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-163900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-160900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-158800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-156700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-154500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-152300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-150500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-148500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-148100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-146400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-144400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-142600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-119500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-118400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-111100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-54600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-53000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-51800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-51300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-49200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-47800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-46000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-44700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-43100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-41800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-45700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-44700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-49800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-49600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-48000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-46200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-44400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-94900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-2900</v>
       </c>
       <c r="K81" s="3">
         <v>-2900</v>
       </c>
       <c r="L81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M81" s="3">
         <v>-2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,34 +5418,34 @@
         <v>-1300</v>
       </c>
       <c r="E89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-1400</v>
       </c>
       <c r="O89" s="3">
         <v>-1400</v>
@@ -5237,25 +5454,28 @@
         <v>-1400</v>
       </c>
       <c r="Q89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R89" s="3">
         <v>-1300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>MOST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,13 +773,13 @@
         <v>400</v>
       </c>
       <c r="F8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>500</v>
       </c>
       <c r="H8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I8" s="3">
         <v>600</v>
@@ -787,16 +791,16 @@
         <v>600</v>
       </c>
       <c r="L8" s="3">
+        <v>600</v>
+      </c>
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
-      </c>
-      <c r="O8" s="3">
-        <v>500</v>
       </c>
       <c r="P8" s="3">
         <v>500</v>
@@ -808,22 +812,25 @@
         <v>500</v>
       </c>
       <c r="S8" s="3">
+        <v>500</v>
+      </c>
+      <c r="T8" s="3">
         <v>1900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -843,7 +850,7 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
@@ -855,13 +862,13 @@
         <v>300</v>
       </c>
       <c r="M9" s="3">
+        <v>300</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
-      </c>
-      <c r="O9" s="3">
-        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
@@ -870,13 +877,13 @@
         <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>200</v>
@@ -885,10 +892,13 @@
         <v>200</v>
       </c>
       <c r="W9" s="3">
+        <v>200</v>
+      </c>
+      <c r="X9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -899,16 +909,16 @@
         <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
       </c>
       <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
@@ -917,7 +927,7 @@
         <v>300</v>
       </c>
       <c r="L10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>500</v>
@@ -926,7 +936,7 @@
         <v>500</v>
       </c>
       <c r="O10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
@@ -935,25 +945,28 @@
         <v>300</v>
       </c>
       <c r="R10" s="3">
+        <v>300</v>
+      </c>
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>200</v>
-      </c>
-      <c r="V10" s="3">
-        <v>300</v>
       </c>
       <c r="W10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,40 +990,41 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="3">
         <v>900</v>
       </c>
       <c r="F12" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="G12" s="3">
         <v>700</v>
       </c>
       <c r="H12" s="3">
+        <v>700</v>
+      </c>
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>700</v>
       </c>
       <c r="K12" s="3">
         <v>700</v>
       </c>
       <c r="L12" s="3">
+        <v>700</v>
+      </c>
+      <c r="M12" s="3">
         <v>800</v>
-      </c>
-      <c r="M12" s="3">
-        <v>500</v>
       </c>
       <c r="N12" s="3">
         <v>500</v>
@@ -1019,13 +1033,13 @@
         <v>500</v>
       </c>
       <c r="P12" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
-      </c>
-      <c r="R12" s="3">
-        <v>400</v>
       </c>
       <c r="S12" s="3">
         <v>400</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,28 +1124,31 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>6000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>54500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>4900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1145,8 +1165,8 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1157,8 +1177,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>56700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1800</v>
       </c>
       <c r="N17" s="3">
         <v>1800</v>
       </c>
       <c r="O17" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="P17" s="3">
         <v>1700</v>
       </c>
       <c r="Q17" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="R17" s="3">
         <v>1300</v>
       </c>
       <c r="S17" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T17" s="3">
         <v>1200</v>
       </c>
       <c r="U17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V17" s="3">
         <v>1400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-56200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1200</v>
       </c>
       <c r="P18" s="3">
         <v>-1200</v>
       </c>
       <c r="Q18" s="3">
-        <v>-800</v>
+        <v>-1200</v>
       </c>
       <c r="R18" s="3">
         <v>-800</v>
       </c>
       <c r="S18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T18" s="3">
         <v>700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1450,25 +1484,25 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1000</v>
       </c>
       <c r="U20" s="3">
         <v>-1000</v>
@@ -1477,75 +1511,81 @@
         <v>-1000</v>
       </c>
       <c r="W20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-56100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,34 +1593,34 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1300</v>
       </c>
       <c r="K22" s="3">
         <v>1300</v>
       </c>
       <c r="L22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1100</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>10</v>
@@ -1591,8 +1631,8 @@
       <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-57400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-2900</v>
       </c>
       <c r="L23" s="3">
         <v>-2900</v>
       </c>
       <c r="M23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-57400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-2900</v>
       </c>
       <c r="L26" s="3">
         <v>-2900</v>
       </c>
       <c r="M26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-94900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-2900</v>
       </c>
       <c r="L27" s="3">
         <v>-2900</v>
       </c>
       <c r="M27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2230,25 +2300,25 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1000</v>
       </c>
       <c r="U32" s="3">
         <v>1000</v>
@@ -2257,75 +2327,81 @@
         <v>1000</v>
       </c>
       <c r="W32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-94900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-2900</v>
       </c>
       <c r="L33" s="3">
         <v>-2900</v>
       </c>
       <c r="M33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-94900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-2900</v>
       </c>
       <c r="L35" s="3">
         <v>-2900</v>
       </c>
       <c r="M35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2583,64 +2670,67 @@
         <v>800</v>
       </c>
       <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>300</v>
       </c>
       <c r="O41" s="3">
         <v>300</v>
       </c>
       <c r="P41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
-      </c>
-      <c r="U41" s="3">
-        <v>500</v>
       </c>
       <c r="V41" s="3">
         <v>500</v>
       </c>
       <c r="W41" s="3">
+        <v>500</v>
+      </c>
+      <c r="X41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,43 +2794,46 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>300</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
@@ -2749,28 +2842,31 @@
         <v>300</v>
       </c>
       <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
       <c r="T43" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="U43" s="3">
         <v>500</v>
       </c>
       <c r="V43" s="3">
+        <v>500</v>
+      </c>
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,16 +2930,19 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
@@ -2855,7 +2954,7 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
@@ -2870,102 +2969,108 @@
         <v>300</v>
       </c>
       <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
-      </c>
-      <c r="N46" s="3">
-        <v>900</v>
       </c>
       <c r="O46" s="3">
         <v>900</v>
       </c>
       <c r="P46" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3038,19 +3146,19 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>600</v>
       </c>
       <c r="I48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J48" s="3">
         <v>700</v>
@@ -3059,16 +3167,16 @@
         <v>700</v>
       </c>
       <c r="L48" s="3">
+        <v>700</v>
+      </c>
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>900</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3105,8 +3216,8 @@
       <c r="E49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3130,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
@@ -3139,7 +3250,7 @@
         <v>100</v>
       </c>
       <c r="Q49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
@@ -3148,7 +3259,7 @@
         <v>200</v>
       </c>
       <c r="T49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U49" s="3">
         <v>300</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3324,23 +3444,23 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>10</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>10</v>
@@ -3348,14 +3468,17 @@
       <c r="U52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1900</v>
       </c>
       <c r="Q54" s="3">
         <v>1900</v>
       </c>
       <c r="R54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S54" s="3">
         <v>800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,31 +3664,32 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -3579,7 +3710,7 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3594,13 +3725,16 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,35 +3742,35 @@
         <v>5000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>49300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>48400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>5000</v>
       </c>
       <c r="L58" s="3">
         <v>5000</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
@@ -3644,17 +3778,17 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>45000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>42800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5000</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
@@ -3664,220 +3798,232 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E60" s="3">
         <v>6300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>51900</v>
       </c>
       <c r="J60" s="3">
         <v>51900</v>
       </c>
       <c r="K60" s="3">
+        <v>51900</v>
+      </c>
+      <c r="L60" s="3">
         <v>7800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>47000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>44900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>52600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>52300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>42300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>39900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>43800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>41900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>41300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>40700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>44500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>47900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>46500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>45400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>600</v>
       </c>
       <c r="I62" s="3">
         <v>600</v>
@@ -3886,32 +4032,32 @@
         <v>600</v>
       </c>
       <c r="K62" s="3">
+        <v>600</v>
+      </c>
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>600</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E66" s="3">
         <v>7200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>53400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>52500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>51000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>49400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>47400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>44200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>43700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>47700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>45500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>52000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>51200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>49500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>47600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,23 +4504,26 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>126200</v>
+      </c>
+      <c r="E70" s="3">
         <v>114100</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>113100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>103600</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-253400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-251300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-249400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-241200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-183700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-181100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-173100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-169800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-166700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-163900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-160900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-158800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-156700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-154500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-152300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-150500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-148500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-148100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-146400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-144400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-142600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-131100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-119500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-118400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-111100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-54600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-53000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-51800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-51300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-49200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-47800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-46000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-44700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-43100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-41800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-45700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-44700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-49800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-49600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-48000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-46200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-44400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-94900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-2900</v>
       </c>
       <c r="L81" s="3">
         <v>-2900</v>
       </c>
       <c r="M81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,46 +5623,49 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1300</v>
+        <v>-1000</v>
       </c>
       <c r="E89" s="3">
         <v>-1300</v>
       </c>
       <c r="F89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-1400</v>
       </c>
       <c r="P89" s="3">
         <v>-1400</v>
@@ -5457,25 +5674,28 @@
         <v>-1400</v>
       </c>
       <c r="R89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S89" s="3">
         <v>-1300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,64 +6299,67 @@
         <v>1000</v>
       </c>
       <c r="E100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F100" s="3">
         <v>2300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>MOST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,116 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>400</v>
@@ -776,16 +783,16 @@
         <v>400</v>
       </c>
       <c r="G8" s="3">
+        <v>400</v>
+      </c>
+      <c r="H8" s="3">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>600</v>
       </c>
       <c r="K8" s="3">
         <v>600</v>
@@ -794,19 +801,19 @@
         <v>600</v>
       </c>
       <c r="M8" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O8" s="3">
         <v>800</v>
       </c>
       <c r="P8" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q8" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="R8" s="3">
         <v>500</v>
@@ -815,30 +822,36 @@
         <v>500</v>
       </c>
       <c r="T8" s="3">
+        <v>500</v>
+      </c>
+      <c r="U8" s="3">
+        <v>500</v>
+      </c>
+      <c r="V8" s="3">
         <v>1900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>600</v>
-      </c>
-      <c r="V8" s="3">
-        <v>400</v>
-      </c>
-      <c r="W8" s="3">
-        <v>500</v>
       </c>
       <c r="X8" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
@@ -853,10 +866,10 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
@@ -865,7 +878,7 @@
         <v>300</v>
       </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
@@ -874,31 +887,37 @@
         <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
       </c>
       <c r="S9" s="3">
+        <v>200</v>
+      </c>
+      <c r="T9" s="3">
+        <v>200</v>
+      </c>
+      <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>100</v>
-      </c>
-      <c r="U9" s="3">
-        <v>200</v>
-      </c>
-      <c r="V9" s="3">
-        <v>200</v>
       </c>
       <c r="W9" s="3">
         <v>200</v>
       </c>
       <c r="X9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,67 +925,73 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
       </c>
       <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>400</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O10" s="3">
         <v>500</v>
       </c>
       <c r="P10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R10" s="3">
         <v>300</v>
       </c>
       <c r="S10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T10" s="3">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="U10" s="3">
         <v>400</v>
       </c>
       <c r="V10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W10" s="3">
+        <v>400</v>
+      </c>
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,61 +1016,63 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>800</v>
+      </c>
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>800</v>
-      </c>
-      <c r="N12" s="3">
-        <v>500</v>
-      </c>
-      <c r="O12" s="3">
-        <v>500</v>
       </c>
       <c r="P12" s="3">
         <v>500</v>
       </c>
       <c r="Q12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R12" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S12" s="3">
         <v>400</v>
       </c>
       <c r="T12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U12" s="3">
         <v>400</v>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,34 +1160,40 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>6000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>54500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>4900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1168,11 +1207,11 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1180,11 +1219,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1195,8 +1234,14 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>2500</v>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="3">
         <v>2200</v>
       </c>
       <c r="F17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H17" s="3">
         <v>8500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>56700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-2100</v>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="3">
         <v>-1800</v>
       </c>
       <c r="F18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-8100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-56200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-6300</v>
       </c>
       <c r="J18" s="3">
         <v>-1500</v>
       </c>
       <c r="K18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,13 +1513,15 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1487,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-1100</v>
@@ -1499,93 +1566,105 @@
         <v>-1000</v>
       </c>
       <c r="S20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-1000</v>
       </c>
       <c r="W20" s="3">
         <v>-1000</v>
       </c>
       <c r="X20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-2100</v>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E21" s="3">
         <v>-1800</v>
       </c>
       <c r="F21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H21" s="3">
         <v>-8100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-56100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-6300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-1600</v>
       </c>
       <c r="M21" s="3">
         <v>-1700</v>
       </c>
       <c r="N21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-2000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,40 +1672,40 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1100</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>10</v>
@@ -1634,11 +1713,11 @@
       <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1652,76 +1731,88 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-2200</v>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E23" s="3">
         <v>-1900</v>
       </c>
       <c r="F23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H23" s="3">
         <v>-8200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-57400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-8100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-2100</v>
       </c>
       <c r="P23" s="3">
         <v>-2200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-2300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-2200</v>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E26" s="3">
         <v>-1900</v>
       </c>
       <c r="F26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H26" s="3">
         <v>-8200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-57400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-8100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-2100</v>
       </c>
       <c r="P26" s="3">
         <v>-2200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-2300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-15200</v>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E27" s="3">
         <v>-2900</v>
       </c>
       <c r="F27" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H27" s="3">
         <v>-13500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-94900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-8100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-2100</v>
       </c>
       <c r="P27" s="3">
         <v>-2200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,13 +2397,19 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2303,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>1100</v>
@@ -2315,93 +2454,105 @@
         <v>1000</v>
       </c>
       <c r="S32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>1000</v>
       </c>
       <c r="W32" s="3">
         <v>1000</v>
       </c>
       <c r="X32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-15200</v>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E33" s="3">
         <v>-2900</v>
       </c>
       <c r="F33" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H33" s="3">
         <v>-13500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-94900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-8100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-2100</v>
       </c>
       <c r="P33" s="3">
         <v>-2200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-15200</v>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E35" s="3">
         <v>-2900</v>
       </c>
       <c r="F35" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H35" s="3">
         <v>-13500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-94900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-8100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-2100</v>
       </c>
       <c r="P35" s="3">
         <v>-2200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2832,84 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>600</v>
       </c>
       <c r="J41" s="3">
         <v>300</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="L41" s="3">
         <v>300</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>300</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2976,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,67 +2991,73 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
       <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
+        <v>300</v>
+      </c>
+      <c r="W43" s="3">
         <v>500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,13 +3124,19 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -2948,7 +3145,7 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -2957,10 +3154,10 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
@@ -2972,13 +3169,13 @@
         <v>300</v>
       </c>
       <c r="O45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
       </c>
       <c r="Q45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R45" s="3">
         <v>300</v>
@@ -2987,7 +3184,7 @@
         <v>200</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
@@ -3001,8 +3198,14 @@
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3010,67 +3213,73 @@
         <v>1100</v>
       </c>
       <c r="E46" s="3">
+        <v>700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,52 +3346,58 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>300</v>
+      </c>
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>700</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
       </c>
       <c r="M48" s="3">
+        <v>700</v>
+      </c>
+      <c r="N48" s="3">
+        <v>700</v>
+      </c>
+      <c r="O48" s="3">
         <v>800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>900</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>100</v>
-      </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3205,19 +3420,25 @@
       <c r="X48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3244,28 +3465,28 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
       </c>
       <c r="R49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T49" s="3">
         <v>200</v>
       </c>
       <c r="U49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W49" s="3">
         <v>300</v>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3642,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3447,14 +3686,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="P52" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
@@ -3462,23 +3701,29 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>10</v>
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3924,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,28 +3935,28 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -3713,10 +3974,10 @@
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -3728,13 +3989,19 @@
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3745,200 +4012,218 @@
         <v>5000</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>49300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>48400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5000</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="P58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>45000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>42800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>5000</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>1300</v>
       </c>
       <c r="H59" s="3">
-        <v>2300</v>
+        <v>600</v>
       </c>
       <c r="I59" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="J59" s="3">
         <v>2300</v>
       </c>
       <c r="K59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F60" s="3">
         <v>6100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2800</v>
       </c>
       <c r="I60" s="3">
         <v>1900</v>
       </c>
       <c r="J60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L60" s="3">
         <v>51900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>51900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>8200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>47000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>44900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>7400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,124 +4231,130 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>6100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>52600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>52300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>42300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>39900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>43800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>41900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>41300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>40700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>44500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>47900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>46500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>45400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
-        <v>400</v>
-      </c>
       <c r="F62" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
       </c>
       <c r="H62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
         <v>500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>600</v>
       </c>
       <c r="K62" s="3">
         <v>600</v>
       </c>
       <c r="L62" s="3">
+        <v>600</v>
+      </c>
+      <c r="M62" s="3">
+        <v>600</v>
+      </c>
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>600</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
@@ -4073,8 +4364,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F66" s="3">
         <v>6400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>55800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>54700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>53400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>52500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>51000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>49400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>47400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>45700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>44200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>43700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>47700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>45500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>52000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>51200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>49500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>47600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,29 +4836,35 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>131500</v>
+      </c>
+      <c r="E70" s="3">
+        <v>127200</v>
+      </c>
+      <c r="F70" s="3">
         <v>126200</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>114100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>113100</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>103600</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-257400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-255300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-253400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-251300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-249400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-241200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-183700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-181100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-173100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-169800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-166700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-163900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-160900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-158800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-156700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-154500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-152300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-150500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-148500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-148100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-146400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-144400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-142600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-132300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-131100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-119500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-118400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-111100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-54600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-53000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-51800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-51300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-49200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-47800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-46000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-44700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-43100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-41800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-45700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-44700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-49800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-49600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-48000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-46200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-44400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-15200</v>
+      <c r="D81" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E81" s="3">
         <v>-2900</v>
       </c>
       <c r="F81" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H81" s="3">
         <v>-13500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-94900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-8100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-2100</v>
       </c>
       <c r="P81" s="3">
         <v>-2200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,13 +5613,15 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5286,8 +5683,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-1400</v>
       </c>
       <c r="R89" s="3">
         <v>-1400</v>
       </c>
       <c r="S89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="U89" s="3">
         <v>-1300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-1500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6159,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6229,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6377,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6451,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6775,88 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="E100" s="3">
         <v>1000</v>
       </c>
       <c r="F100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H100" s="3">
         <v>2300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6923,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>MOST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -777,7 +781,7 @@
         <v>300</v>
       </c>
       <c r="E8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F8" s="3">
         <v>400</v>
@@ -789,13 +793,13 @@
         <v>400</v>
       </c>
       <c r="I8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J8" s="3">
         <v>500</v>
       </c>
       <c r="K8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L8" s="3">
         <v>600</v>
@@ -807,16 +811,16 @@
         <v>600</v>
       </c>
       <c r="O8" s="3">
+        <v>600</v>
+      </c>
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
-      </c>
-      <c r="R8" s="3">
-        <v>500</v>
       </c>
       <c r="S8" s="3">
         <v>500</v>
@@ -828,22 +832,25 @@
         <v>500</v>
       </c>
       <c r="V8" s="3">
+        <v>500</v>
+      </c>
+      <c r="W8" s="3">
         <v>1900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -854,7 +861,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
@@ -872,7 +879,7 @@
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
@@ -884,13 +891,13 @@
         <v>300</v>
       </c>
       <c r="P9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
-      </c>
-      <c r="R9" s="3">
-        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>200</v>
@@ -899,13 +906,13 @@
         <v>200</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
         <v>200</v>
@@ -914,10 +921,13 @@
         <v>200</v>
       </c>
       <c r="Z9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -925,10 +935,10 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
@@ -937,16 +947,16 @@
         <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
@@ -955,7 +965,7 @@
         <v>300</v>
       </c>
       <c r="O10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P10" s="3">
         <v>500</v>
@@ -964,7 +974,7 @@
         <v>500</v>
       </c>
       <c r="R10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S10" s="3">
         <v>300</v>
@@ -973,25 +983,28 @@
         <v>300</v>
       </c>
       <c r="U10" s="3">
+        <v>300</v>
+      </c>
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>200</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>300</v>
       </c>
       <c r="Z10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,49 +1031,50 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>900</v>
       </c>
       <c r="H12" s="3">
         <v>900</v>
       </c>
       <c r="I12" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="J12" s="3">
         <v>700</v>
       </c>
       <c r="K12" s="3">
+        <v>700</v>
+      </c>
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>700</v>
       </c>
       <c r="N12" s="3">
         <v>700</v>
       </c>
       <c r="O12" s="3">
+        <v>700</v>
+      </c>
+      <c r="P12" s="3">
         <v>800</v>
-      </c>
-      <c r="P12" s="3">
-        <v>500</v>
       </c>
       <c r="Q12" s="3">
         <v>500</v>
@@ -1069,13 +1083,13 @@
         <v>500</v>
       </c>
       <c r="S12" s="3">
+        <v>500</v>
+      </c>
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
-      </c>
-      <c r="U12" s="3">
-        <v>400</v>
       </c>
       <c r="V12" s="3">
         <v>400</v>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1178,25 +1198,25 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>6000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>54500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>4900</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1213,8 +1233,8 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1225,8 +1245,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
+      <c r="D17" s="3">
+        <v>2300</v>
       </c>
       <c r="E17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>56700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1800</v>
       </c>
       <c r="Q17" s="3">
         <v>1800</v>
       </c>
       <c r="R17" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="S17" s="3">
         <v>1700</v>
       </c>
       <c r="T17" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="U17" s="3">
         <v>1300</v>
       </c>
       <c r="V17" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="W17" s="3">
         <v>1200</v>
       </c>
       <c r="X17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>-2000</v>
       </c>
       <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-56200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-1200</v>
       </c>
       <c r="S18" s="3">
         <v>-1200</v>
       </c>
       <c r="T18" s="3">
-        <v>-800</v>
+        <v>-1200</v>
       </c>
       <c r="U18" s="3">
         <v>-800</v>
       </c>
       <c r="V18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="W18" s="3">
         <v>700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,13 +1548,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1560,25 +1594,25 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-1000</v>
       </c>
       <c r="X20" s="3">
         <v>-1000</v>
@@ -1587,128 +1621,134 @@
         <v>-1000</v>
       </c>
       <c r="Z20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-56100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1900</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1300</v>
       </c>
       <c r="N22" s="3">
         <v>1300</v>
       </c>
       <c r="O22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P22" s="3">
         <v>1200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>10</v>
@@ -1719,8 +1759,8 @@
       <c r="T22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
+      <c r="D23" s="3">
+        <v>-2100</v>
       </c>
       <c r="E23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-57400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-2900</v>
       </c>
       <c r="O23" s="3">
         <v>-2900</v>
       </c>
       <c r="P23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>-2100</v>
       </c>
       <c r="E26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-57400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-2900</v>
       </c>
       <c r="O26" s="3">
         <v>-2900</v>
       </c>
       <c r="P26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
+      <c r="D27" s="3">
+        <v>-3000</v>
       </c>
       <c r="E27" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-94900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-2900</v>
       </c>
       <c r="O27" s="3">
         <v>-2900</v>
       </c>
       <c r="P27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,13 +2470,16 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2448,25 +2518,25 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1100</v>
-      </c>
-      <c r="W32" s="3">
-        <v>1000</v>
       </c>
       <c r="X32" s="3">
         <v>1000</v>
@@ -2475,84 +2545,90 @@
         <v>1000</v>
       </c>
       <c r="Z32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
+      <c r="D33" s="3">
+        <v>-3000</v>
       </c>
       <c r="E33" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-94900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-2900</v>
       </c>
       <c r="O33" s="3">
         <v>-2900</v>
       </c>
       <c r="P33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>-3000</v>
       </c>
       <c r="E35" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-94900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-2900</v>
       </c>
       <c r="O35" s="3">
         <v>-2900</v>
       </c>
       <c r="P35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>800</v>
       </c>
       <c r="G41" s="3">
         <v>800</v>
       </c>
       <c r="H41" s="3">
+        <v>800</v>
+      </c>
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>300</v>
       </c>
       <c r="R41" s="3">
         <v>300</v>
       </c>
       <c r="S41" s="3">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>600</v>
-      </c>
-      <c r="X41" s="3">
-        <v>500</v>
       </c>
       <c r="Y41" s="3">
         <v>500</v>
       </c>
       <c r="Z41" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,13 +3072,16 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2997,37 +3090,37 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>300</v>
       </c>
       <c r="R43" s="3">
         <v>300</v>
@@ -3036,28 +3129,31 @@
         <v>300</v>
       </c>
       <c r="T43" s="3">
+        <v>300</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
-      </c>
-      <c r="U43" s="3">
-        <v>300</v>
       </c>
       <c r="V43" s="3">
         <v>300</v>
       </c>
       <c r="W43" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="X43" s="3">
         <v>500</v>
       </c>
       <c r="Y43" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,25 +3226,28 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -3160,7 +3259,7 @@
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
@@ -3175,111 +3274,117 @@
         <v>300</v>
       </c>
       <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>900</v>
       </c>
       <c r="R46" s="3">
         <v>900</v>
       </c>
       <c r="S46" s="3">
+        <v>900</v>
+      </c>
+      <c r="T46" s="3">
         <v>1600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3364,25 +3472,25 @@
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
       </c>
       <c r="J48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
       </c>
       <c r="L48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
@@ -3391,16 +3499,16 @@
         <v>700</v>
       </c>
       <c r="O48" s="3">
+        <v>700</v>
+      </c>
+      <c r="P48" s="3">
         <v>800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>900</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3471,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R49" s="3">
         <v>100</v>
@@ -3480,7 +3591,7 @@
         <v>100</v>
       </c>
       <c r="T49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U49" s="3">
         <v>200</v>
@@ -3489,7 +3600,7 @@
         <v>200</v>
       </c>
       <c r="W49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X49" s="3">
         <v>300</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3692,23 +3812,23 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>10</v>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>10</v>
@@ -3716,14 +3836,17 @@
       <c r="X52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
+      <c r="Y52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1900</v>
       </c>
       <c r="T54" s="3">
         <v>1900</v>
       </c>
       <c r="U54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V54" s="3">
         <v>800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3941,25 +4072,25 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -3980,7 +4111,7 @@
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -3995,18 +4126,21 @@
         <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>5000</v>
@@ -4018,35 +4152,35 @@
         <v>5000</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>49300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>48400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>5000</v>
       </c>
       <c r="O58" s="3">
         <v>5000</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -4054,17 +4188,17 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>45000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>42800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5000</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
@@ -4074,161 +4208,170 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5900</v>
+        <v>900</v>
       </c>
       <c r="E60" s="3">
         <v>5900</v>
       </c>
       <c r="F60" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G60" s="3">
         <v>6100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
-      </c>
-      <c r="L60" s="3">
-        <v>51900</v>
       </c>
       <c r="M60" s="3">
         <v>51900</v>
       </c>
       <c r="N60" s="3">
+        <v>51900</v>
+      </c>
+      <c r="O60" s="3">
         <v>7800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>47000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>44900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4237,67 +4380,70 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>52600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>52300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>42300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>39900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>43800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>41900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>41300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>40700</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>44500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>47900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>46500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>45400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4305,25 +4451,25 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
       </c>
       <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>600</v>
       </c>
       <c r="L62" s="3">
         <v>600</v>
@@ -4332,32 +4478,32 @@
         <v>600</v>
       </c>
       <c r="N62" s="3">
+        <v>600</v>
+      </c>
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>600</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4601,73 +4759,76 @@
         <v>6100</v>
       </c>
       <c r="E66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>55800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>54700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>53400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>52500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>51000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>47400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>45700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>44200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>43700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>47700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>45500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>52000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>51200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>49500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>47600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,32 +5007,35 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>132500</v>
+      </c>
+      <c r="E70" s="3">
         <v>131500</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>127200</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>126200</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>114100</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>113100</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>103600</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-259500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-257400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-255300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-253400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-251300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-249400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-241200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-183700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-181100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-173100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-169800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-166700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-163900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-160900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-158800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-156700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-154500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-152300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-150500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-148500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-148100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-146400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-144400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-142600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-137400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-136200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-132300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-131100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-119500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-118400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-111100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-54600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-53000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-51800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-51300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-49200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-47800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-44700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-43100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-41800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-45700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-44700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-49800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-49600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-48000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-46200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-44400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
+      <c r="D81" s="3">
+        <v>-3000</v>
       </c>
       <c r="E81" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-94900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-2900</v>
       </c>
       <c r="O81" s="3">
         <v>-2900</v>
       </c>
       <c r="P81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,16 +5813,17 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6068,46 +6285,46 @@
         <v>-1300</v>
       </c>
       <c r="E89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1300</v>
       </c>
       <c r="H89" s="3">
         <v>-1300</v>
       </c>
       <c r="I89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-1400</v>
       </c>
       <c r="S89" s="3">
         <v>-1400</v>
@@ -6116,25 +6333,28 @@
         <v>-1400</v>
       </c>
       <c r="U89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="V89" s="3">
         <v>-1300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,16 +7024,19 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1700</v>
-      </c>
-      <c r="E100" s="3">
-        <v>1000</v>
       </c>
       <c r="F100" s="3">
         <v>1000</v>
@@ -6799,64 +7045,67 @@
         <v>1000</v>
       </c>
       <c r="H100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I100" s="3">
         <v>2300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
     </row>
